--- a/src/testdata/RegisterForm.xlsx
+++ b/src/testdata/RegisterForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\e-commerceTesting\src\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\eCommerceTEsting_automationexercise.com\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA03384-222E-4086-921A-B338E4B0D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF0F869-97F8-44AC-8734-011CDECA7B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7FC3B7E1-2EFE-4744-B1E4-84B611133EC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FC3B7E1-2EFE-4744-B1E4-84B611133EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>Kukuh</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Kukuh4</t>
   </si>
   <si>
-    <t>Kukuh5</t>
-  </si>
-  <si>
-    <t>kukuhpradipto3@gmail.com</t>
-  </si>
-  <si>
-    <t>kukuhpradipto4@gmail.com</t>
-  </si>
-  <si>
     <t>Kukuh6</t>
   </si>
   <si>
@@ -131,6 +122,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Kukuh10</t>
+  </si>
+  <si>
+    <t>Kukuh11</t>
+  </si>
+  <si>
+    <t>kukuhpradipto10@gmail.com</t>
+  </si>
+  <si>
+    <t>kukuhpradipto11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C063728-38BB-4647-AD6C-7658BF099605}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,10 +591,10 @@
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -641,10 +644,10 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -689,69 +692,15 @@
         <v>111243</v>
       </c>
       <c r="Q3" s="1">
-        <v>89653893939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1998</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1">
-        <v>111243</v>
-      </c>
-      <c r="Q4" s="1">
         <v>89653893939</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2:B4" r:id="rId1" display="kukuhpradipto1@gmail.com" xr:uid="{5050A985-328D-40E0-BFF4-289750AE30AD}"/>
+    <hyperlink ref="B2:B3" r:id="rId1" display="kukuhpradipto1@gmail.com" xr:uid="{5050A985-328D-40E0-BFF4-289750AE30AD}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{99B1B6A8-1FD7-468B-9B13-FE7514E1737D}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{2FCF6EFF-49FA-4CE5-8BB8-115A2AF2A9A2}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{64A727C8-46B4-4FE6-B8C8-0575BD8D5820}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -761,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A0E644-6B0E-4D1D-B5C3-704B6E7D955A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,13 +791,13 @@
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1">
@@ -893,16 +842,16 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -944,16 +893,16 @@
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -994,16 +943,16 @@
     </row>
     <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1044,16 +993,16 @@
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1094,16 +1043,16 @@
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1144,16 +1093,16 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1194,16 +1143,16 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
